--- a/report/src/main/webapp/template/settlement_attendance_report.xlsx
+++ b/report/src/main/webapp/template/settlement_attendance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23903" windowHeight="11411"/>
+    <workbookView windowWidth="18948" windowHeight="10464"/>
   </bookViews>
   <sheets>
     <sheet name="考勤结算表" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,9 @@
     <t>金额</t>
   </si>
   <si>
+    <t>合作机构</t>
+  </si>
+  <si>
     <t>结算金额</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>老师</t>
   </si>
   <si>
-    <t>合作机构</t>
-  </si>
-  <si>
     <t>课程年级</t>
   </si>
   <si>
@@ -127,6 +127,9 @@
     <t>amount</t>
   </si>
   <si>
+    <t>coop_org_name</t>
+  </si>
+  <si>
     <t>settlement_amount</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>teacher_name</t>
-  </si>
-  <si>
-    <t>coop_org_name</t>
   </si>
   <si>
     <t>grade_name</t>
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -224,6 +224,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,101 +259,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,14 +274,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -358,16 +311,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,55 +382,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,127 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +586,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -600,13 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,45 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -673,153 +662,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1192,29 +1192,31 @@
     <col min="4" max="4" width="10.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="12.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="20.3796296296296" customWidth="1"/>
-    <col min="7" max="8" width="9.37962962962963" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.6296296296296" customWidth="1"/>
-    <col min="11" max="11" width="6.12962962962963" customWidth="1"/>
-    <col min="12" max="12" width="10.3796296296296" customWidth="1"/>
-    <col min="13" max="14" width="10.1296296296296" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="10.3796296296296" customWidth="1"/>
-    <col min="17" max="17" width="13.75" customWidth="1"/>
-    <col min="19" max="19" width="12.1296296296296" customWidth="1"/>
-    <col min="20" max="21" width="9.62962962962963" customWidth="1"/>
-    <col min="22" max="22" width="17.5" customWidth="1"/>
-    <col min="23" max="23" width="12.1296296296296" customWidth="1"/>
-    <col min="24" max="24" width="9.87962962962963" customWidth="1"/>
-    <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="26" width="20.3796296296296" customWidth="1"/>
-    <col min="27" max="27" width="9.75" customWidth="1"/>
-    <col min="28" max="28" width="21.6296296296296" customWidth="1"/>
-    <col min="29" max="29" width="12.6296296296296" customWidth="1"/>
-    <col min="30" max="30" width="20.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="9.37962962962963" customWidth="1"/>
+    <col min="8" max="8" width="20.3796296296296" customWidth="1"/>
+    <col min="9" max="9" width="9.37962962962963" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.6296296296296" customWidth="1"/>
+    <col min="12" max="12" width="6.12962962962963" customWidth="1"/>
+    <col min="13" max="13" width="10.3796296296296" customWidth="1"/>
+    <col min="14" max="15" width="10.1296296296296" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="10.3796296296296" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="12.1296296296296" customWidth="1"/>
+    <col min="21" max="22" width="9.62962962962963" customWidth="1"/>
+    <col min="23" max="23" width="17.5" customWidth="1"/>
+    <col min="24" max="24" width="12.1296296296296" customWidth="1"/>
+    <col min="25" max="25" width="9.87962962962963" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="20.3796296296296" customWidth="1"/>
+    <col min="28" max="28" width="9.75" customWidth="1"/>
+    <col min="29" max="29" width="21.6296296296296" customWidth="1"/>
+    <col min="30" max="30" width="12.6296296296296" customWidth="1"/>
+    <col min="31" max="31" width="20.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,55 +1260,58 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1350,51 +1355,54 @@
         <v>43</v>
       </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
     </row>
